--- a/log_history/Y5_B2526_Neurology_scanner1765786760980_b4df4d3060ee5a11a9fb4fe245eb3c4dfaf42a930352ff25ac8e7238642d95b9.xlsx
+++ b/log_history/Y5_B2526_Neurology_scanner1765786760980_b4df4d3060ee5a11a9fb4fe245eb3c4dfaf42a930352ff25ac8e7238642d95b9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Neurology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
